--- a/РасчетныеХарактеристикиЛокомотивовВагонов.XLSX
+++ b/РасчетныеХарактеристикиЛокомотивовВагонов.XLSX
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>ВЛ84</t>
   </si>
@@ -34,9 +34,6 @@
     <t>2ТЭ10УТ</t>
   </si>
   <si>
-    <t>ТЭМЗ, ТЭП16</t>
-  </si>
-  <si>
     <t>ТЭМ17</t>
   </si>
   <si>
@@ -215,6 +212,18 @@
   </si>
   <si>
     <t>8-миосный</t>
+  </si>
+  <si>
+    <t>ВЛ-60</t>
+  </si>
+  <si>
+    <t>fсг</t>
+  </si>
+  <si>
+    <t>ТЭП16</t>
+  </si>
+  <si>
+    <t>ТЭМЗ</t>
   </si>
 </sst>
 </file>
@@ -250,8 +259,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -556,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,32 +580,35 @@
     <col min="4" max="4" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
       </c>
       <c r="B2">
         <v>11500</v>
@@ -613,12 +626,15 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="H2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>12000</v>
@@ -636,12 +652,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="H3" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>11500</v>
@@ -659,12 +678,15 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="H4" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>11500</v>
@@ -682,10 +704,13 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="H5" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -705,10 +730,13 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="H6" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -728,10 +756,13 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -751,12 +782,15 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>11500</v>
@@ -774,12 +808,15 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>11900</v>
@@ -797,12 +834,15 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="H10" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>11000</v>
@@ -820,10 +860,13 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="H11" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -843,10 +886,13 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="H12" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -866,12 +912,15 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="H13" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>12500</v>
@@ -889,12 +938,15 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="H14" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>12500</v>
@@ -912,12 +964,15 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="H15" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>12500</v>
@@ -935,12 +990,15 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="H16" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>11500</v>
@@ -958,12 +1016,15 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H17" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>11500</v>
@@ -981,12 +1042,15 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H18" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>11500</v>
@@ -1004,12 +1068,15 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H19" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>11500</v>
@@ -1027,12 +1094,15 @@
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H20" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>11500</v>
@@ -1050,12 +1120,15 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H21" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>11500</v>
@@ -1073,12 +1146,15 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H22" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>11500</v>
@@ -1096,12 +1172,15 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H23" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>11500</v>
@@ -1119,12 +1198,15 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H24" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>10500</v>
@@ -1142,12 +1224,15 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="H25" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>10500</v>
@@ -1165,10 +1250,13 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="H26" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1188,12 +1276,15 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="H27" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>9800</v>
@@ -1211,12 +1302,15 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="H28" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>9800</v>
@@ -1234,12 +1328,15 @@
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="H29" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>10500</v>
@@ -1257,12 +1354,15 @@
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H30" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>10500</v>
@@ -1280,12 +1380,15 @@
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H31" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>10500</v>
@@ -1303,12 +1406,15 @@
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H32" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B33">
         <v>10600</v>
@@ -1326,45 +1432,51 @@
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H33" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="B34">
+        <v>10600</v>
+      </c>
+      <c r="C34">
+        <v>2980</v>
+      </c>
+      <c r="D34">
+        <v>95</v>
+      </c>
+      <c r="E34">
+        <v>105</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
         <v>10550</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>2080</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>110</v>
       </c>
-      <c r="E34">
-        <v>105</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35">
-        <v>11400</v>
-      </c>
-      <c r="C35">
-        <v>2150</v>
-      </c>
-      <c r="D35">
-        <v>129</v>
-      </c>
       <c r="E35">
         <v>105</v>
       </c>
@@ -1372,10 +1484,13 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="H35" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1395,45 +1510,51 @@
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="H36" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B37">
+        <v>11400</v>
+      </c>
+      <c r="C37">
+        <v>2150</v>
+      </c>
+      <c r="D37">
+        <v>129</v>
+      </c>
+      <c r="E37">
+        <v>105</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
         <v>10800</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>2200</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>119</v>
       </c>
-      <c r="E37">
-        <v>105</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38">
-        <v>10000</v>
-      </c>
-      <c r="C38">
-        <v>2330</v>
-      </c>
-      <c r="D38">
-        <v>115</v>
-      </c>
       <c r="E38">
         <v>105</v>
       </c>
@@ -1441,12 +1562,15 @@
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="H38" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>10000</v>
@@ -1464,12 +1588,15 @@
         <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="H39" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>10000</v>
@@ -1487,21 +1614,24 @@
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="H40" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>10250</v>
+        <v>10000</v>
       </c>
       <c r="C41">
-        <v>2100</v>
+        <v>2330</v>
       </c>
       <c r="D41">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="E41">
         <v>105</v>
@@ -1512,33 +1642,39 @@
       <c r="G41" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B42">
-        <v>11000</v>
+        <v>10250</v>
       </c>
       <c r="C42">
-        <v>995</v>
+        <v>2100</v>
       </c>
       <c r="D42">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="E42">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>11000</v>
@@ -1556,35 +1692,41 @@
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="H43" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B44">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="C44">
-        <v>1070</v>
+        <v>995</v>
       </c>
       <c r="D44">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E44">
         <v>95</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="H44" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>10700</v>
@@ -1602,35 +1744,41 @@
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="H45" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B46">
-        <v>10550</v>
+        <v>10700</v>
       </c>
       <c r="C46">
-        <v>995</v>
+        <v>1070</v>
       </c>
       <c r="D46">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E46">
         <v>95</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="H46" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>10550</v>
@@ -1648,7 +1796,62 @@
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="H47" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48">
+        <v>10550</v>
+      </c>
+      <c r="C48">
+        <v>995</v>
+      </c>
+      <c r="D48">
+        <v>200</v>
+      </c>
+      <c r="E48">
+        <v>95</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49">
+        <v>11500</v>
+      </c>
+      <c r="C49">
+        <v>3080</v>
+      </c>
+      <c r="D49">
+        <v>116</v>
+      </c>
+      <c r="E49">
+        <v>125</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="1">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/РасчетныеХарактеристикиЛокомотивовВагонов.XLSX
+++ b/РасчетныеХарактеристикиЛокомотивовВагонов.XLSX
@@ -569,7 +569,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E6"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/РасчетныеХарактеристикиЛокомотивовВагонов.XLSX
+++ b/РасчетныеХарактеристикиЛокомотивовВагонов.XLSX
@@ -52,9 +52,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Pct</t>
-  </si>
-  <si>
     <t>ВЛ60</t>
   </si>
   <si>
@@ -224,13 +221,16 @@
   </si>
   <si>
     <t>ТЭМЗ</t>
+  </si>
+  <si>
+    <t>P_ct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,13 +238,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -259,9 +302,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -569,7 +626,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A49" sqref="A49:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,30 +642,30 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>11500</v>
@@ -626,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1">
         <v>60</v>
@@ -634,7 +691,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>12000</v>
@@ -652,61 +709,61 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
         <v>11500</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>3160</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>116</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>125</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
         <v>11500</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>3160</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>116</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>125</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3">
         <v>135</v>
       </c>
     </row>
@@ -730,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1">
         <v>180</v>
@@ -756,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1">
         <v>156</v>
@@ -782,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1">
         <v>140</v>
@@ -790,7 +847,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>11500</v>
@@ -808,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1">
         <v>70</v>
@@ -816,7 +873,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>11900</v>
@@ -834,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="1">
         <v>70</v>
@@ -842,7 +899,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>11000</v>
@@ -860,7 +917,7 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="1">
         <v>59</v>
@@ -886,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="1">
         <v>59</v>
@@ -912,67 +969,67 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="1">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12500</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3055</v>
+      </c>
+      <c r="D14" s="2">
+        <v>152</v>
+      </c>
+      <c r="E14" s="2">
+        <v>125</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="2">
         <v>12500</v>
       </c>
-      <c r="C14">
+      <c r="C15" s="2">
         <v>3055</v>
       </c>
-      <c r="D14">
+      <c r="D15" s="2">
         <v>152</v>
       </c>
-      <c r="E14">
+      <c r="E15" s="2">
         <v>125</v>
       </c>
-      <c r="F14">
+      <c r="F15" s="2">
         <v>2</v>
       </c>
-      <c r="G14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="1">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>12500</v>
-      </c>
-      <c r="C15">
-        <v>3055</v>
-      </c>
-      <c r="D15">
-        <v>152</v>
-      </c>
-      <c r="E15">
-        <v>125</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="G15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="3">
         <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>12500</v>
@@ -990,269 +1047,269 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="1">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>11500</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2230</v>
+      </c>
+      <c r="D17" s="2">
+        <v>109</v>
+      </c>
+      <c r="E17" s="2">
+        <v>105</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2">
+        <v>11500</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2230</v>
+      </c>
+      <c r="D18" s="2">
+        <v>109</v>
+      </c>
+      <c r="E18" s="2">
+        <v>105</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2">
+        <v>11500</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2230</v>
+      </c>
+      <c r="D19" s="2">
+        <v>109</v>
+      </c>
+      <c r="E19" s="2">
+        <v>105</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2">
+        <v>11500</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2230</v>
+      </c>
+      <c r="D20" s="2">
+        <v>109</v>
+      </c>
+      <c r="E20" s="2">
+        <v>105</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2">
+        <v>11500</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2230</v>
+      </c>
+      <c r="D21" s="2">
+        <v>109</v>
+      </c>
+      <c r="E21" s="2">
+        <v>105</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2">
+        <v>11500</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2230</v>
+      </c>
+      <c r="D22" s="2">
+        <v>109</v>
+      </c>
+      <c r="E22" s="2">
+        <v>105</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>11500</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2230</v>
+      </c>
+      <c r="D23" s="2">
+        <v>109</v>
+      </c>
+      <c r="E23" s="2">
+        <v>105</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
+      <c r="B24" s="2">
         <v>11500</v>
       </c>
-      <c r="C17">
+      <c r="C24" s="2">
         <v>2230</v>
       </c>
-      <c r="D17">
+      <c r="D24" s="2">
         <v>109</v>
       </c>
-      <c r="E17">
-        <v>105</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="E24" s="2">
+        <v>105</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B18">
-        <v>11500</v>
-      </c>
-      <c r="C18">
-        <v>2230</v>
-      </c>
-      <c r="D18">
-        <v>109</v>
-      </c>
-      <c r="E18">
-        <v>105</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19">
-        <v>11500</v>
-      </c>
-      <c r="C19">
-        <v>2230</v>
-      </c>
-      <c r="D19">
-        <v>109</v>
-      </c>
-      <c r="E19">
-        <v>105</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <v>11500</v>
-      </c>
-      <c r="C20">
-        <v>2230</v>
-      </c>
-      <c r="D20">
-        <v>109</v>
-      </c>
-      <c r="E20">
-        <v>105</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>11500</v>
-      </c>
-      <c r="C21">
-        <v>2230</v>
-      </c>
-      <c r="D21">
-        <v>109</v>
-      </c>
-      <c r="E21">
-        <v>105</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>11500</v>
-      </c>
-      <c r="C22">
-        <v>2230</v>
-      </c>
-      <c r="D22">
-        <v>109</v>
-      </c>
-      <c r="E22">
-        <v>105</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>11500</v>
-      </c>
-      <c r="C23">
-        <v>2230</v>
-      </c>
-      <c r="D23">
-        <v>109</v>
-      </c>
-      <c r="E23">
-        <v>105</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>11500</v>
-      </c>
-      <c r="C24">
-        <v>2230</v>
-      </c>
-      <c r="D24">
-        <v>109</v>
-      </c>
-      <c r="E24">
-        <v>105</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B25" s="6">
+        <v>10500</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2330</v>
+      </c>
+      <c r="D25" s="6">
+        <v>14</v>
+      </c>
+      <c r="E25" s="6">
+        <v>105</v>
+      </c>
+      <c r="F25" s="6">
+        <v>3</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B25">
+      <c r="B26" s="6">
         <v>10500</v>
       </c>
-      <c r="C25">
+      <c r="C26" s="6">
         <v>2330</v>
       </c>
-      <c r="D25">
+      <c r="D26" s="6">
         <v>14</v>
       </c>
-      <c r="E25">
-        <v>105</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>10500</v>
-      </c>
-      <c r="C26">
-        <v>2330</v>
-      </c>
-      <c r="D26">
-        <v>14</v>
-      </c>
-      <c r="E26">
-        <v>105</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="E26" s="6">
+        <v>105</v>
+      </c>
+      <c r="F26" s="6">
+        <v>3</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="7">
         <v>57</v>
       </c>
     </row>
@@ -1276,191 +1333,191 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="1">
         <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="6">
+        <v>9800</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2250</v>
+      </c>
+      <c r="D28" s="6">
+        <v>129</v>
+      </c>
+      <c r="E28" s="6">
+        <v>105</v>
+      </c>
+      <c r="F28" s="6">
+        <v>3</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="6">
+        <v>9800</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2250</v>
+      </c>
+      <c r="D29" s="6">
+        <v>129</v>
+      </c>
+      <c r="E29" s="6">
+        <v>105</v>
+      </c>
+      <c r="F29" s="6">
+        <v>3</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B28">
-        <v>9800</v>
-      </c>
-      <c r="C28">
+      <c r="B30" s="8">
+        <v>10500</v>
+      </c>
+      <c r="C30" s="8">
         <v>2250</v>
       </c>
-      <c r="D28">
-        <v>129</v>
-      </c>
-      <c r="E28">
-        <v>105</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>9800</v>
-      </c>
-      <c r="C29">
+      <c r="D30" s="8">
+        <v>110</v>
+      </c>
+      <c r="E30" s="8">
+        <v>105</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="8">
+        <v>10500</v>
+      </c>
+      <c r="C31" s="8">
         <v>2250</v>
       </c>
-      <c r="D29">
-        <v>129</v>
-      </c>
-      <c r="E29">
-        <v>105</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30">
+      <c r="D31" s="8">
+        <v>110</v>
+      </c>
+      <c r="E31" s="8">
+        <v>105</v>
+      </c>
+      <c r="F31" s="8">
+        <v>3</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="8">
         <v>10500</v>
       </c>
-      <c r="C30">
+      <c r="C32" s="8">
         <v>2250</v>
       </c>
-      <c r="D30">
+      <c r="D32" s="8">
         <v>110</v>
       </c>
-      <c r="E30">
-        <v>105</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="E32" s="8">
+        <v>105</v>
+      </c>
+      <c r="F32" s="8">
+        <v>3</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="9">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31">
-        <v>10500</v>
-      </c>
-      <c r="C31">
-        <v>2250</v>
-      </c>
-      <c r="D31">
-        <v>110</v>
-      </c>
-      <c r="E31">
-        <v>105</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="G31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32">
-        <v>10500</v>
-      </c>
-      <c r="C32">
-        <v>2250</v>
-      </c>
-      <c r="D32">
-        <v>110</v>
-      </c>
-      <c r="E32">
-        <v>105</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" s="1">
-        <v>104</v>
-      </c>
-    </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="4">
         <v>10600</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>2980</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <v>95</v>
       </c>
-      <c r="E33">
-        <v>105</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="1">
+      <c r="E33" s="4">
+        <v>105</v>
+      </c>
+      <c r="F33" s="4">
+        <v>3</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="5">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34">
+      <c r="A34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="4">
         <v>10600</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <v>2980</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="4">
         <v>95</v>
       </c>
-      <c r="E34">
-        <v>105</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="E34" s="4">
+        <v>105</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="5">
         <v>87</v>
       </c>
     </row>
@@ -1484,61 +1541,61 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H35" s="1">
         <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36">
+      <c r="A36" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="10">
         <v>11400</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="10">
         <v>2150</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="10">
         <v>129</v>
       </c>
-      <c r="E36">
-        <v>105</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-      <c r="G36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" s="1">
+      <c r="E36" s="10">
+        <v>105</v>
+      </c>
+      <c r="F36" s="10">
+        <v>3</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="11">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
+      <c r="A37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10">
         <v>11400</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="10">
         <v>2150</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="10">
         <v>129</v>
       </c>
-      <c r="E37">
-        <v>105</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" s="1">
+      <c r="E37" s="10">
+        <v>105</v>
+      </c>
+      <c r="F37" s="10">
+        <v>3</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="11">
         <v>69</v>
       </c>
     </row>
@@ -1562,67 +1619,67 @@
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H38" s="1">
         <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12">
+        <v>10000</v>
+      </c>
+      <c r="C39" s="12">
+        <v>2330</v>
+      </c>
+      <c r="D39" s="12">
+        <v>115</v>
+      </c>
+      <c r="E39" s="12">
+        <v>105</v>
+      </c>
+      <c r="F39" s="12">
+        <v>3</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="B40" s="12">
         <v>10000</v>
       </c>
-      <c r="C39">
+      <c r="C40" s="12">
         <v>2330</v>
       </c>
-      <c r="D39">
+      <c r="D40" s="12">
         <v>115</v>
       </c>
-      <c r="E39">
-        <v>105</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>10000</v>
-      </c>
-      <c r="C40">
-        <v>2330</v>
-      </c>
-      <c r="D40">
-        <v>115</v>
-      </c>
-      <c r="E40">
-        <v>105</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" s="1">
+      <c r="E40" s="12">
+        <v>105</v>
+      </c>
+      <c r="F40" s="12">
+        <v>3</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="13">
         <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>10000</v>
@@ -1640,7 +1697,7 @@
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H41" s="1">
         <v>70</v>
@@ -1666,67 +1723,67 @@
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H42" s="1">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43">
+      <c r="A43" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="14">
         <v>11000</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="14">
         <v>995</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="14">
         <v>200</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="14">
         <v>95</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="14">
         <v>2</v>
       </c>
-      <c r="G43" t="s">
-        <v>55</v>
-      </c>
-      <c r="H43" s="1">
+      <c r="G43" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="15">
         <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44">
+      <c r="A44" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="14">
         <v>11000</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="14">
         <v>995</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="14">
         <v>200</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="14">
         <v>95</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="14">
         <v>2</v>
       </c>
-      <c r="G44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H44" s="1">
+      <c r="G44" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="15">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>10700</v>
@@ -1744,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H45" s="1">
         <v>50</v>
@@ -1752,7 +1809,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46">
         <v>10700</v>
@@ -1770,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H46" s="1">
         <v>50</v>
@@ -1778,7 +1835,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>10550</v>
@@ -1796,7 +1853,7 @@
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H47" s="1">
         <v>48</v>
@@ -1804,7 +1861,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48">
         <v>10550</v>
@@ -1822,7 +1879,7 @@
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H48" s="1">
         <v>48</v>
@@ -1830,7 +1887,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49">
         <v>11500</v>
@@ -1848,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H49" s="1">
         <v>60</v>
